--- a/vista/tp5/grupo5.xlsx
+++ b/vista/tp5/grupo5.xlsx
@@ -1,36 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\grupo5PWD\vista\tp5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <definedNames>
+    <definedName name="PRICE">Worksheet!$B$3</definedName>
+    <definedName name="Tax_RATE">Worksheet!$B$1</definedName>
+  </definedNames>
+  <calcPr calcId="999999"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Prueba escribir en A1 !</t>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Net price</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>PRICE INCLUDING TAX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -57,13 +69,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,35 +373,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1">
+        <f>19%</f>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>PRICE*Tax_RATE</f>
+        <v>2.4681000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>PRICE*(1+Tax_RATE)</f>
+        <v>15.4581</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/vista/tp5/grupo5.xlsx
+++ b/vista/tp5/grupo5.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\grupo5PWD\vista\tp5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="PRICE">Worksheet!$B$3</definedName>
-    <definedName name="Tax_RATE">Worksheet!$B$1</definedName>
+    <definedName name="Tax_RATE">'Worksheet'!$B$1</definedName>
+    <definedName name="PRICE">'Worksheet'!$B$3</definedName>
   </definedNames>
-  <calcPr calcId="999999"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>Tax Rate</t>
   </si>
@@ -40,9 +35,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -69,21 +69,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -373,26 +365,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <f>19%</f>
-        <v>0.19</v>
+        <f>85%</f>
+        <v>0.85</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -400,25 +394,36 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <f>PRICE*Tax_RATE</f>
-        <v>2.4681000000000002</v>
+        <v>11.0415</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <f>PRICE*(1+Tax_RATE)</f>
-        <v>15.4581</v>
+        <v>24.0315</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>